--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>641168.731543164</v>
+        <v>722753.3932887076</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12426458.88989895</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5739665.974240763</v>
+        <v>6381813.161497341</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9727509.939969771</v>
+        <v>9403040.189879954</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>83.6877848175191</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.2229592370504</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>164.1517780685108</v>
       </c>
     </row>
     <row r="4">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>112.6409053033934</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>68.29750109832911</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>188.3689046878869</v>
       </c>
       <c r="V5" t="n">
-        <v>225.8888291856956</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -978,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>9.773691112668152</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>182.7330459903989</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>67.76451507639828</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>162.1265216662863</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>280.6849349264019</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.781160222249666</v>
+        <v>103.3387326418233</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>126.7498226612768</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>238.6591887249604</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.23490948285976</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>224.7411810187704</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>168.1158122680963</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>114.2656173771021</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>126.5388824951702</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>39.32117841962486</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>158.822637857666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3795111755377</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>22.11196976343408</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>188.605944229152</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2257,7 +2259,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>114.2656173771021</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>78.78083674902116</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2336,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,13 +2371,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>134.0513867710694</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2493,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>77.95264323204893</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>150.2062474346973</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>256.6438019796656</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>10.68879048862437</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>106.5867442799591</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>147.9212967840875</v>
       </c>
     </row>
     <row r="29">
@@ -2801,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>131.0573912450687</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>243.2391485592445</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>155.7123319296402</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>228.1910895014586</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>74.75769145492382</v>
+        <v>13.02719212039654</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>156.6414918632566</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>227.735996773493</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.2178776215695</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>127.3165365479904</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>229.6551996059913</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3518,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>211.1568521455547</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3667,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>77.31354443380498</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>77.31354443380498</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>186.8250998946393</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>160.2962291794994</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.75769145492382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>53.7634345605265</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3983,16 +3985,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>126.7498226612768</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>24.93337795519134</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>110.0317106646586</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>97.28002421814141</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>409.5124851747536</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C2" t="n">
-        <v>409.5124851747536</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D2" t="n">
-        <v>51.24678656800311</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="E2" t="n">
-        <v>51.24678656800311</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F2" t="n">
-        <v>51.24678656800311</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>1559.717415475767</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X2" t="n">
-        <v>1186.251657214687</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y2" t="n">
-        <v>796.1123252388754</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542606</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488051</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756901</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182523</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057928</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>870.329241545892</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>629.9105956742757</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>394.758487442533</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>394.758487442533</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>186.9069872370001</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>903.4321187182921</v>
+        <v>560.4883125408293</v>
       </c>
       <c r="C4" t="n">
-        <v>734.4959357903853</v>
+        <v>560.4883125408293</v>
       </c>
       <c r="D4" t="n">
-        <v>620.7172435647353</v>
+        <v>560.4883125408293</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>412.5752189584362</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>412.5752189584362</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>244.0058583134396</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>90.08448524691758</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.862713590079</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.862713590079</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.862713590079</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>1533.862713590079</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X4" t="n">
-        <v>1305.873162692062</v>
+        <v>560.4883125408293</v>
       </c>
       <c r="Y4" t="n">
-        <v>1085.080583548532</v>
+        <v>560.4883125408293</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>831.1952082980224</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="C5" t="n">
-        <v>462.2326913576107</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="D5" t="n">
-        <v>462.2326913576107</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="E5" t="n">
-        <v>462.2326913576107</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F5" t="n">
-        <v>51.24678656800311</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>1978.188206007797</v>
       </c>
       <c r="V5" t="n">
-        <v>2334.16879386915</v>
+        <v>1647.125318664227</v>
       </c>
       <c r="W5" t="n">
-        <v>1981.400138599036</v>
+        <v>1647.125318664227</v>
       </c>
       <c r="X5" t="n">
-        <v>1607.934380337956</v>
+        <v>1647.125318664227</v>
       </c>
       <c r="Y5" t="n">
-        <v>1217.795048362144</v>
+        <v>1256.985986688415</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>533.4666540631119</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>359.013624781985</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100999</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>1040.889774569341</v>
       </c>
       <c r="N6" t="n">
-        <v>1683.044957866265</v>
+        <v>1555.403885599981</v>
       </c>
       <c r="O6" t="n">
-        <v>2015.115393042427</v>
+        <v>1846.763131854547</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2061.271547415448</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2154.745546059888</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2029.495166406371</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>1834.784844880347</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>1606.683255013611</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1371.531146781868</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1117.293790053667</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>909.4422898481339</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>701.68199108318</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>937.5665200750353</v>
+        <v>769.8287052088427</v>
       </c>
       <c r="C7" t="n">
-        <v>768.6303371471284</v>
+        <v>769.8287052088427</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>619.712065796507</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>471.7989722141139</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>471.7989722141139</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>303.6661428091322</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>58.69630920174229</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>213.7203003246704</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>467.6240706728881</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>745.7191196640783</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1022.636306385108</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1377.190882465729</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1178.011396849955</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>954.407539542579</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>769.8287052088427</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>769.8287052088427</v>
       </c>
       <c r="W7" t="n">
-        <v>1567.997114946822</v>
+        <v>769.8287052088427</v>
       </c>
       <c r="X7" t="n">
-        <v>1340.007564048805</v>
+        <v>769.8287052088427</v>
       </c>
       <c r="Y7" t="n">
-        <v>1119.214984905275</v>
+        <v>769.8287052088427</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1248.370234799863</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4805,7 +4807,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4841,13 +4843,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2398.575165100876</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>2025.109406839797</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="Y8" t="n">
-        <v>1634.970074863985</v>
+        <v>1926.050536840746</v>
       </c>
     </row>
     <row r="9">
@@ -4899,10 +4901,10 @@
         <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4984,25 +4986,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>825.137147448514</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426272</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W10" t="n">
-        <v>281.0354892056666</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X10" t="n">
-        <v>53.04593830764924</v>
+        <v>155.629344792067</v>
       </c>
       <c r="Y10" t="n">
         <v>51.24678656800311</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796252</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C11" t="n">
-        <v>552.8079389392135</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>194.542240332463</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>66.5121164321834</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>66.5121164321834</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180638</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943747</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="12">
@@ -5094,70 +5096,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>310.0549803959802</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C13" t="n">
-        <v>310.0549803959802</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D13" t="n">
-        <v>310.0549803959802</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E13" t="n">
-        <v>310.0549803959802</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F13" t="n">
-        <v>310.0549803959802</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5242,7 +5244,7 @@
         <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>310.0549803959802</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2005.586939522201</v>
+        <v>2232.598233480555</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1863.635716540143</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>1505.370017933393</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>1119.581765335148</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>708.595860545541</v>
       </c>
       <c r="G14" t="n">
-        <v>66.5121164321834</v>
+        <v>293.5234103905374</v>
       </c>
       <c r="H14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W14" t="n">
-        <v>3155.791869823214</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X14" t="n">
-        <v>2782.326111562134</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y14" t="n">
-        <v>2392.186779586323</v>
+        <v>2619.198073544677</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5425,13 +5427,13 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5458,19 +5460,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W16" t="n">
         <v>1722.044275313594</v>
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2175.400891308157</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C17" t="n">
-        <v>1806.438374367745</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D17" t="n">
-        <v>1448.172675760994</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E17" t="n">
-        <v>1062.38442316275</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>651.3985183731427</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>236.3260682181391</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5537,28 +5539,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W17" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="X17" t="n">
-        <v>2952.14006334809</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y17" t="n">
-        <v>2562.000731372279</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I18" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>697.9541770656748</v>
+        <v>373.8289708570292</v>
       </c>
       <c r="C19" t="n">
-        <v>529.0179941377679</v>
+        <v>373.8289708570292</v>
       </c>
       <c r="D19" t="n">
-        <v>529.0179941377679</v>
+        <v>373.8289708570292</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>373.8289708570292</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574644</v>
+        <v>226.9390233591188</v>
       </c>
       <c r="G19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610489</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046018</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W19" t="n">
-        <v>697.9541770656748</v>
+        <v>1004.259565728816</v>
       </c>
       <c r="X19" t="n">
-        <v>697.9541770656748</v>
+        <v>776.270014830799</v>
       </c>
       <c r="Y19" t="n">
-        <v>697.9541770656748</v>
+        <v>555.4774356872689</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2196.097994299122</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C20" t="n">
-        <v>1827.13547735871</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D20" t="n">
-        <v>1468.86977875196</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E20" t="n">
-        <v>1083.081526153716</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F20" t="n">
-        <v>672.0956213641082</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>257.0231712091046</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912089</v>
@@ -5762,40 +5764,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.60582160917</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W20" t="n">
-        <v>2972.837166339056</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X20" t="n">
-        <v>2972.837166339056</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="Y20" t="n">
-        <v>2582.697834363244</v>
+        <v>2325.505862906802</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5899,25 +5901,25 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H22" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,22 +5931,22 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W22" t="n">
         <v>1722.044275313594</v>
@@ -5963,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2345.167438673965</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C23" t="n">
-        <v>1976.204921733553</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
@@ -6017,22 +6019,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794325</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="W23" t="n">
-        <v>2424.744041450754</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="X23" t="n">
-        <v>2424.744041450754</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y23" t="n">
-        <v>2424.744041450754</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
@@ -6069,13 +6071,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N24" t="n">
         <v>1685.951113992584</v>
@@ -6084,34 +6086,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>459.8449442241111</v>
+        <v>2489.924953962485</v>
       </c>
       <c r="C25" t="n">
-        <v>459.8449442241111</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="D25" t="n">
-        <v>459.8449442241111</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="E25" t="n">
-        <v>459.8449442241111</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F25" t="n">
-        <v>312.9549967262008</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G25" t="n">
-        <v>145.2521601009197</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.608663915319</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T25" t="n">
-        <v>1513.842048484845</v>
+        <v>2892.365997936255</v>
       </c>
       <c r="U25" t="n">
-        <v>1224.739181610489</v>
+        <v>2892.365997936255</v>
       </c>
       <c r="V25" t="n">
-        <v>970.0546934046018</v>
+        <v>2892.365997936255</v>
       </c>
       <c r="W25" t="n">
-        <v>680.6375233676413</v>
+        <v>2892.365997936255</v>
       </c>
       <c r="X25" t="n">
-        <v>680.6375233676413</v>
+        <v>2892.365997936255</v>
       </c>
       <c r="Y25" t="n">
-        <v>459.8449442241111</v>
+        <v>2671.573418792725</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2345.167438673965</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3314.809063539853</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>3061.278586813689</v>
       </c>
       <c r="V26" t="n">
-        <v>2994.542934265601</v>
+        <v>3061.278586813689</v>
       </c>
       <c r="W26" t="n">
-        <v>2994.542934265601</v>
+        <v>2708.509931543575</v>
       </c>
       <c r="X26" t="n">
-        <v>2994.542934265601</v>
+        <v>2335.044173282495</v>
       </c>
       <c r="Y26" t="n">
-        <v>2604.403602289789</v>
+        <v>1944.904841306683</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6336,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6345,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>880.2242361621296</v>
+        <v>1611.713337450771</v>
       </c>
       <c r="C28" t="n">
-        <v>880.2242361621296</v>
+        <v>1611.713337450771</v>
       </c>
       <c r="D28" t="n">
-        <v>772.5608581015648</v>
+        <v>1611.713337450771</v>
       </c>
       <c r="E28" t="n">
-        <v>624.6477645191717</v>
+        <v>1611.713337450771</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959803</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J28" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L28" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N28" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O28" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P28" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T28" t="n">
-        <v>1424.011591242373</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U28" t="n">
-        <v>1134.908724368016</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V28" t="n">
-        <v>880.2242361621296</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="W28" t="n">
-        <v>880.2242361621296</v>
+        <v>1989.118339645846</v>
       </c>
       <c r="X28" t="n">
-        <v>880.2242361621296</v>
+        <v>1761.128788747829</v>
       </c>
       <c r="Y28" t="n">
-        <v>880.2242361621296</v>
+        <v>1611.713337450771</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2303.170539913434</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C29" t="n">
-        <v>1934.208022973022</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="D29" t="n">
-        <v>1575.942324366272</v>
+        <v>584.6815723082748</v>
       </c>
       <c r="E29" t="n">
-        <v>1190.154071768027</v>
+        <v>198.8933197100305</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>198.8933197100305</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>198.8933197100305</v>
       </c>
       <c r="H29" t="n">
         <v>66.5121164321834</v>
@@ -6488,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>3079.909711953368</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>3079.909711953368</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>3079.909711953368</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>3079.909711953368</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>2689.770379977556</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I30" t="n">
         <v>66.5121164321834</v>
@@ -6573,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6582,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>370.0144869816389</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C31" t="n">
-        <v>370.0144869816389</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>370.0144869816389</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E31" t="n">
-        <v>370.0144869816389</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>370.0144869816389</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
         <v>66.5121164321834</v>
@@ -6643,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>1134.908724368016</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V31" t="n">
-        <v>880.2242361621296</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W31" t="n">
-        <v>590.8070661251691</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X31" t="n">
-        <v>590.8070661251691</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y31" t="n">
-        <v>370.0144869816389</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2175.400891308157</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C32" t="n">
-        <v>1806.438374367745</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D32" t="n">
-        <v>1575.942324366272</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.154071768027</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912089</v>
@@ -6722,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W32" t="n">
-        <v>3325.60582160917</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X32" t="n">
-        <v>2952.14006334809</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y32" t="n">
-        <v>2562.000731372279</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686079</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064756</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080133</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986305</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.0249360836216</v>
+        <v>2405.758056700423</v>
       </c>
       <c r="C34" t="n">
-        <v>142.0249360836216</v>
+        <v>2236.821873772516</v>
       </c>
       <c r="D34" t="n">
-        <v>142.0249360836216</v>
+        <v>2086.70523436018</v>
       </c>
       <c r="E34" t="n">
-        <v>142.0249360836216</v>
+        <v>1938.792140777787</v>
       </c>
       <c r="F34" t="n">
-        <v>142.0249360836216</v>
+        <v>1791.902193279877</v>
       </c>
       <c r="G34" t="n">
-        <v>142.0249360836216</v>
+        <v>1624.199356654596</v>
       </c>
       <c r="H34" t="n">
-        <v>142.0249360836216</v>
+        <v>1477.982169872454</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L34" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N34" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O34" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P34" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621296</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W34" t="n">
-        <v>590.8070661251691</v>
+        <v>3036.18865157221</v>
       </c>
       <c r="X34" t="n">
-        <v>362.8175152271517</v>
+        <v>2808.199100674193</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.0249360836216</v>
+        <v>2587.406521530663</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.569348694472</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.60683175406</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="D35" t="n">
-        <v>1122.60683175406</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E35" t="n">
-        <v>1122.60683175406</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F35" t="n">
-        <v>711.6209269644526</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G35" t="n">
-        <v>296.548476809449</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6962,25 +6964,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.308520734405</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.169188758593</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="36">
@@ -7017,10 +7019,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>234.2149530574644</v>
+        <v>373.8289708570296</v>
       </c>
       <c r="C37" t="n">
         <v>234.2149530574644</v>
@@ -7120,25 +7122,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T37" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U37" t="n">
-        <v>1134.908724368016</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V37" t="n">
-        <v>880.2242361621296</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W37" t="n">
-        <v>590.8070661251691</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X37" t="n">
-        <v>362.8175152271517</v>
+        <v>776.2700148307995</v>
       </c>
       <c r="Y37" t="n">
-        <v>234.2149530574644</v>
+        <v>555.4774356872693</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7156,19 @@
         <v>1849.914172223764</v>
       </c>
       <c r="D38" t="n">
-        <v>1491.648473617013</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>1105.860221018769</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>694.8743162291614</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>279.8018660741579</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.5121164321834</v>
@@ -7178,19 +7180,19 @@
         <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1783.876212293103</v>
+        <v>1861.970701620179</v>
       </c>
       <c r="C40" t="n">
-        <v>1614.940029365196</v>
+        <v>1693.034518692272</v>
       </c>
       <c r="D40" t="n">
-        <v>1464.823389952861</v>
+        <v>1542.917879279936</v>
       </c>
       <c r="E40" t="n">
         <v>1464.823389952861</v>
@@ -7360,22 +7362,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T40" t="n">
-        <v>3247.511332282094</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U40" t="n">
-        <v>2958.408465407738</v>
+        <v>3036.502954734814</v>
       </c>
       <c r="V40" t="n">
-        <v>2703.723977201851</v>
+        <v>2781.818466528927</v>
       </c>
       <c r="W40" t="n">
-        <v>2414.30680716489</v>
+        <v>2492.401296491966</v>
       </c>
       <c r="X40" t="n">
-        <v>2186.317256266873</v>
+        <v>2264.411745593949</v>
       </c>
       <c r="Y40" t="n">
-        <v>1965.524677123343</v>
+        <v>2043.619166450419</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1133.32083113111</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C41" t="n">
-        <v>764.3583141906979</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D41" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="E41" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F41" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7451,10 +7453,10 @@
         <v>2071.975386180638</v>
       </c>
       <c r="X41" t="n">
-        <v>1910.060003171043</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y41" t="n">
-        <v>1519.920671195231</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.5121164321834</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C43" t="n">
-        <v>66.5121164321834</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D43" t="n">
-        <v>66.5121164321834</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E43" t="n">
-        <v>66.5121164321834</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I43" t="n">
         <v>66.5121164321834</v>
@@ -7594,25 +7596,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621296</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W43" t="n">
-        <v>590.8070661251691</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="X43" t="n">
-        <v>362.8175152271517</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y43" t="n">
-        <v>142.0249360836216</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.7704558796252</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C44" t="n">
-        <v>552.8079389392135</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D44" t="n">
-        <v>194.542240332463</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E44" t="n">
-        <v>66.5121164321834</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F44" t="n">
-        <v>66.5121164321834</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
         <v>66.5121164321834</v>
@@ -7673,25 +7675,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3300.420591351401</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>3046.890114625237</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450753</v>
+        <v>3046.890114625237</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>2694.121459355123</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919559</v>
+        <v>2694.121459355123</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943747</v>
+        <v>2303.982127379311</v>
       </c>
     </row>
     <row r="45">
@@ -7728,10 +7730,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>590.8070661251691</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C46" t="n">
-        <v>421.8708831972622</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D46" t="n">
-        <v>421.8708831972622</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E46" t="n">
-        <v>310.7277411117484</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>163.837793613838</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
         <v>66.5121164321834</v>
@@ -7828,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U46" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V46" t="n">
-        <v>880.2242361621296</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W46" t="n">
-        <v>590.8070661251691</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X46" t="n">
-        <v>590.8070661251691</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y46" t="n">
-        <v>590.8070661251691</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>280.1079373569284</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,19 +8300,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>218.9766784751438</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>173.4662495313222</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>162.0073097921335</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>240.4465442417442</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>81.9144471239415</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>265.5531838998939</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22686,13 +22688,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>41.53091770879354</v>
       </c>
     </row>
     <row r="4">
@@ -22702,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>35.97456771481893</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,10 +22725,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>53.85307242647943</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22784,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22796,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>62.70218800622897</v>
       </c>
       <c r="V5" t="n">
-        <v>101.8634292844393</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22866,7 +22868,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.6713744519706</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22875,13 +22877,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.17372043046394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22939,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>103.5020118253178</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>218.7584832601927</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23018,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23039,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23081,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>187.1144470511267</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>89.04616575206711</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23245,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.8034931298451</v>
+        <v>115.2459207102715</v>
       </c>
     </row>
     <row r="11">
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>255.180547410985</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>147.5787499310932</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23433,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>21.5947289549143</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>166.349743869235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>69.86658336855001</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -23555,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>181.1251564493167</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>172.2573809594889</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>168.0688818921502</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23785,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -23795,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>330.4099222588442</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>7.2031704013622</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>17.14348716105326</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>360.6218719000465</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23984,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>106.0018201581684</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>172.2573809594889</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>303.9530049144594</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>116.9437851878326</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>66.80237168227185</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>69.34270184147189</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>126.090039683815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,19 +24496,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>193.2291796509958</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>42.02872873825321</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>70.66335656800729</v>
       </c>
     </row>
     <row r="29">
@@ -24689,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>163.5503731422518</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24728,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>7.756023399657522</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>10.31347632938807</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24920,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>126.4919521192244</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24977,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>21.59472895491427</v>
+        <v>83.32522828944155</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>226.092349800224</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>66.8717676138275</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>29.02894347705831</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>91.26811680410439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25394,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>125.0278420146917</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>83.45091224176574</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>69.12041821276419</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25600,7 +25602,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>142.2354048423642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>167.8579417260436</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>209.4348714989696</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>171.9462208285107</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25871,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>255.180547410985</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>178.9845921844288</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>36.40225198191054</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>128.4296311708957</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>781786.990247443</v>
+        <v>522442.2480109888</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>781786.9902474432</v>
+        <v>714056.9820799473</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>781786.9902474432</v>
+        <v>781786.9902474431</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>861031.9629374744</v>
+        <v>861031.9629374745</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>861031.9629374746</v>
+        <v>861031.9629374743</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>861031.9629374744</v>
+        <v>861031.9629374743</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>861031.9629374744</v>
+        <v>861031.9629374743</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>861031.9629374743</v>
+        <v>861031.9629374744</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>861031.9629374743</v>
+        <v>861031.9629374744</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>305971.6304943087</v>
+        <v>203966.5811971124</v>
       </c>
       <c r="C2" t="n">
-        <v>305971.6304943087</v>
+        <v>279547.2423401894</v>
       </c>
       <c r="D2" t="n">
-        <v>305971.6304943087</v>
+        <v>305971.6304943085</v>
       </c>
       <c r="E2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="F2" t="n">
         <v>340997.0989709205</v>
@@ -26329,31 +26331,31 @@
         <v>340997.0989709205</v>
       </c>
       <c r="H2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="I2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="J2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="K2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="L2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="M2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="N2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="O2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709205</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>308174.1417414033</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>99404.1828459611</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171907</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>71651.52831447154</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>24921.83922824959</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341482</v>
+        <v>47552.26579341488</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17379.72927547097</v>
+        <v>12754.47490881741</v>
       </c>
       <c r="C4" t="n">
-        <v>17379.72927547096</v>
+        <v>15634.16823746789</v>
       </c>
       <c r="D4" t="n">
         <v>17379.72927547097</v>
@@ -26467,37 +26469,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139328</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-919097.6547969264</v>
+        <v>-551923.6775071642</v>
       </c>
       <c r="C6" t="n">
-        <v>195654.1287789928</v>
+        <v>-129460.149494554</v>
       </c>
       <c r="D6" t="n">
-        <v>195654.128778993</v>
+        <v>96249.94593303176</v>
       </c>
       <c r="E6" t="n">
-        <v>75457.3194552574</v>
+        <v>75457.31945525741</v>
       </c>
       <c r="F6" t="n">
         <v>257530.299272448</v>
       </c>
       <c r="G6" t="n">
-        <v>257530.299272448</v>
+        <v>257530.2992724482</v>
       </c>
       <c r="H6" t="n">
-        <v>257530.299272448</v>
+        <v>257530.2992724481</v>
       </c>
       <c r="I6" t="n">
-        <v>257530.2992724481</v>
+        <v>257530.2992724478</v>
       </c>
       <c r="J6" t="n">
-        <v>89925.12146246564</v>
+        <v>188531.1448533339</v>
       </c>
       <c r="K6" t="n">
-        <v>257530.2992724481</v>
+        <v>185878.7709579765</v>
       </c>
       <c r="L6" t="n">
-        <v>257530.299272448</v>
+        <v>232608.4600441986</v>
       </c>
       <c r="M6" t="n">
         <v>209978.0334790332</v>
       </c>
       <c r="N6" t="n">
+        <v>257530.2992724481</v>
+      </c>
+      <c r="O6" t="n">
+        <v>257530.2992724482</v>
+      </c>
+      <c r="P6" t="n">
         <v>257530.299272448</v>
-      </c>
-      <c r="O6" t="n">
-        <v>257530.2992724481</v>
-      </c>
-      <c r="P6" t="n">
-        <v>257530.2992724481</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>853.710664537684</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26787,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>239.6556507682058</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>80.35422757985521</v>
       </c>
       <c r="E3" t="n">
         <v>155.7118084757591</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>98.46987537387565</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>98.46987537387577</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>98.46987537387565</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32008,7 +32010,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095016</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
         <v>738.1512123099059</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33898,7 +33900,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
         <v>769.2673490574995</v>
@@ -33980,7 +33982,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -34141,7 +34143,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095016</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
         <v>738.1512123099059</v>
@@ -34217,7 +34219,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34448,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>577.7882979947785</v>
+        <v>245.5483596572286</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000389</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>519.7112232632732</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P6" t="n">
-        <v>411.6868389156659</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>13.85280893410649</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>15.48193198348407</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>156.5898900231597</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>256.4684548971896</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>279.7143300212424</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>42.7482670934959</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35267,13 +35269,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>490.1260733652765</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35656,7 +35658,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129106</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923311</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37628,7 +37630,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37789,7 +37791,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129106</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -37865,7 +37867,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -38096,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
